--- a/biology/Zoologie/Illex_argentinus/Illex_argentinus.xlsx
+++ b/biology/Zoologie/Illex_argentinus/Illex_argentinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Encornet rouge argentin
 Illex argentinus, l’Encornet rouge argentin, est une espèce de calmars de la famille des Ommastrephidae.
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce calmar se rencontre en Argentine, au Brésil, aux Malouines et en Uruguay[1]. C'est une espèce pélagique, qui vit entre 50 et 200 m de profondeur, parfois jusqu'à 800 m[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce calmar se rencontre en Argentine, au Brésil, aux Malouines et en Uruguay. C'est une espèce pélagique, qui vit entre 50 et 200 m de profondeur, parfois jusqu'à 800 m.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce calmar mesure jusqu'à 33 cm de long[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce calmar mesure jusqu'à 33 cm de long. 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Illex argentinus et l'Homme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est comestible, et constitue l'espèce de calmars la plus pêchée au monde, avec un total estimé à 511 087 t en 2002, soit 23 % du total mondial de la pêche au calmar[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est comestible, et constitue l'espèce de calmars la plus pêchée au monde, avec un total estimé à 511 087 t en 2002, soit 23 % du total mondial de la pêche au calmar. 
 </t>
         </is>
       </c>
@@ -605,15 +623,51 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Illex argentinus (Castellanos (d), 1960)[4].
-L'espèce a été initialement classée dans le genre Ommastrephes sous le protonyme Ommastrephes argentinus Castellanos, 1960[4].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Encornet rouge argentin[5].
-Illex argentinus a pour synonyme[4] :
-Ommastrephes argentinus Castellanos, 1960
-Publication originale
-(es) Z. J. A. de Castellanos, « Una nueva especie de calamar Argentino, Ommastrephes argentinus sp. nov. (Mollusca, Cephalopoda) », Neotrópica, Argentine, vol. 6, no 20,‎ 1960, p. 55-58 (ISSN 0548-1686).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Illex argentinus (Castellanos (d), 1960).
+L'espèce a été initialement classée dans le genre Ommastrephes sous le protonyme Ommastrephes argentinus Castellanos, 1960.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Encornet rouge argentin.
+Illex argentinus a pour synonyme :
+Ommastrephes argentinus Castellanos, 1960</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Illex_argentinus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Illex_argentinus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(es) Z. J. A. de Castellanos, « Una nueva especie de calamar Argentino, Ommastrephes argentinus sp. nov. (Mollusca, Cephalopoda) », Neotrópica, Argentine, vol. 6, no 20,‎ 1960, p. 55-58 (ISSN 0548-1686).</t>
         </is>
       </c>
     </row>
